--- a/spring boot/spring-boot 注释.xlsx
+++ b/spring boot/spring-boot 注释.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个类是一个配置类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +75,31 @@
   </si>
   <si>
     <t>控制器,返回json格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类是一个配置类,所有带 @Bean 注解的方法都会被动态代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取properties(yaml)文件中的配置值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE("${key}")
+Value("#{configProperties['key']}")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autowired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动装配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,17 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="47.125" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -460,44 +484,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
